--- a/Tabele/ginijev koeficient, več 0.9.xlsx
+++ b/Tabele/ginijev koeficient, več 0.9.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Country</t>
   </si>
@@ -27,19 +27,22 @@
     <t>Gini (%)</t>
   </si>
   <si>
-    <t>Egypt</t>
+    <t>Ginijev koeficient</t>
   </si>
   <si>
-    <t>Kazakhstan</t>
+    <t>Brazilija</t>
   </si>
   <si>
-    <t>Thailand</t>
+    <t>Kolumbija</t>
   </si>
   <si>
-    <t>Ukraine</t>
+    <t>Namibija</t>
   </si>
   <si>
-    <t>Ginijev koeficient</t>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Zambija</t>
   </si>
 </sst>
 </file>
@@ -133,7 +136,15 @@
             </a:r>
             <a:r>
               <a:rPr lang="sl-SI"/>
-              <a:t> po svetu, &gt; 0,9 </a:t>
+              <a:t>,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sl-SI" baseline="0"/>
+              <a:t> več kot 0.5</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sl-SI"/>
+              <a:t> </a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -264,41 +275,47 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1'!$A$3:$A$6</c:f>
+              <c:f>'1'!$A$3:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Egypt</c:v>
+                  <c:v>Brazilija</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Kazakhstan</c:v>
+                  <c:v>Kolumbija</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Thailand</c:v>
+                  <c:v>Namibija</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Ukraine</c:v>
+                  <c:v>Panama</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Zambija</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1'!$M$3:$M$6</c:f>
+              <c:f>'1'!$M$3:$M$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.90900000000000003</c:v>
+                  <c:v>0.51300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95200000000000007</c:v>
+                  <c:v>0.51100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90200000000000002</c:v>
+                  <c:v>0.59099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95499999999999996</c:v>
+                  <c:v>0.50800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57099999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1055,16 +1072,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1373,10 +1390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M6"/>
+  <dimension ref="A2:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,7 +1402,7 @@
     <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1393,39 +1410,50 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>0.51100000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>0.59099999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <v>0.90900000000000003</v>
+      <c r="M6">
+        <v>0.50800000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
-      <c r="M4">
-        <v>0.95200000000000007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5">
-        <v>0.90200000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6">
-        <v>0.95499999999999996</v>
+      <c r="M7">
+        <v>0.57099999999999995</v>
       </c>
     </row>
   </sheetData>
